--- a/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_extended.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,9 +26,15 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">info_solidarityTRUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
   </si>
   <si>
@@ -54,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -404,24 +413,30 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0141087722036513</v>
+        <v>0.0125997860246464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00207583461597273</v>
+        <v>0.00103818995711643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0261417097913298</v>
+        <v>0.0241613820921764</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0107775040289704</v>
@@ -432,10 +447,13 @@
       <c r="D3" t="n">
         <v>0.0287313448812843</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0138237293897672</v>
@@ -446,10 +464,13 @@
       <c r="D4" t="n">
         <v>0.0312077889587115</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0331288098023527</v>
@@ -460,10 +481,13 @@
       <c r="D5" t="n">
         <v>0.0724906697549133</v>
       </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0278457860547404</v>
@@ -474,10 +498,13 @@
       <c r="D6" t="n">
         <v>0.0717299643758163</v>
       </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>-0.00189104750170531</v>
@@ -488,10 +515,13 @@
       <c r="D7" t="n">
         <v>0.0518807006296473</v>
       </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>0.0249550763701707</v>
@@ -502,10 +532,13 @@
       <c r="D8" t="n">
         <v>0.0797629970438891</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>0.00602714461363877</v>
@@ -516,10 +549,13 @@
       <c r="D9" t="n">
         <v>0.0515168706427185</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>-0.00464689740143412</v>
@@ -530,10 +566,13 @@
       <c r="D10" t="n">
         <v>0.0504763283409826</v>
       </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>0.0201115718236111</v>
@@ -544,33 +583,59 @@
       <c r="D11" t="n">
         <v>0.0436781623086381</v>
       </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0077146842545342</v>
+        <v>-0.0068616082827698</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0437213167698541</v>
+        <v>-0.0485694859957878</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0282919482607857</v>
+        <v>0.0348462694302482</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
+        <v>-0.0077146842545342</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.0437213167698541</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0282919482607857</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.0143905826233644</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>-0.00925471603586493</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>0.0380358812825937</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
